--- a/자유수강권자 추가 명단.xlsx
+++ b/자유수강권자 추가 명단.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>학년</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,14 @@
   </si>
   <si>
     <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -848,33 +856,33 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
@@ -888,10 +896,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
@@ -899,23 +907,40 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="5:5">
-      <c r="E48" s="1"/>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
